--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -662,7 +662,7 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -702,7 +702,7 @@
         <v>50</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -742,16 +742,16 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -762,13 +762,13 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -822,7 +822,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -868,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -922,13 +922,13 @@
         <v>54</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -962,10 +962,10 @@
         <v>54</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1102,10 +1102,10 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>3</v>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DYNA\Mo_shift\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Apr2017" sheetId="1" r:id="rId1"/>
+    <sheet name="Jun2017" sheetId="1" r:id="rId1"/>
+    <sheet name="May2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Apr2017" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -37,13 +44,16 @@
     <t>amy</t>
   </si>
   <si>
+    <t>tinc</t>
+  </si>
+  <si>
     <t>ardeth</t>
   </si>
   <si>
     <t>daisy</t>
   </si>
   <si>
-    <t>tinc</t>
+    <t>edch</t>
   </si>
   <si>
     <t>mikee</t>
@@ -61,9 +71,6 @@
     <t>lem</t>
   </si>
   <si>
-    <t>edch</t>
-  </si>
-  <si>
     <t>pau</t>
   </si>
   <si>
@@ -82,30 +89,30 @@
     <t>junsat</t>
   </si>
   <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>morgan</t>
+  </si>
+  <si>
     <t>nathan</t>
   </si>
   <si>
-    <t>morgan</t>
+    <t>mart</t>
+  </si>
+  <si>
+    <t>marj</t>
   </si>
   <si>
     <t>roy</t>
   </si>
   <si>
-    <t>mart</t>
-  </si>
-  <si>
-    <t>marj</t>
-  </si>
-  <si>
-    <t>sky</t>
+    <t>kate</t>
   </si>
   <si>
     <t>kennex</t>
   </si>
   <si>
-    <t>kate</t>
-  </si>
-  <si>
     <t>anj</t>
   </si>
   <si>
@@ -115,89 +122,89 @@
     <t>cath</t>
   </si>
   <si>
+    <t>arnel</t>
+  </si>
+  <si>
+    <t>earl</t>
+  </si>
+  <si>
+    <t>zhey</t>
+  </si>
+  <si>
+    <t>meryll</t>
+  </si>
+  <si>
+    <t>carlo</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>prado</t>
+  </si>
+  <si>
+    <t>ivy</t>
+  </si>
+  <si>
+    <t>jec</t>
+  </si>
+  <si>
+    <t>reyn</t>
+  </si>
+  <si>
+    <t>rodney</t>
+  </si>
+  <si>
+    <t>junril</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>CTSD</t>
+  </si>
+  <si>
+    <t>CTSS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
     <t>tinb</t>
-  </si>
-  <si>
-    <t>arnel</t>
-  </si>
-  <si>
-    <t>earl</t>
-  </si>
-  <si>
-    <t>zhey</t>
-  </si>
-  <si>
-    <t>carlo</t>
-  </si>
-  <si>
-    <t>meryll</t>
-  </si>
-  <si>
-    <t>leo</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>prado</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>ivy</t>
-  </si>
-  <si>
-    <t>jec</t>
-  </si>
-  <si>
-    <t>reyn</t>
-  </si>
-  <si>
-    <t>rodney</t>
-  </si>
-  <si>
-    <t>junril</t>
-  </si>
-  <si>
-    <t>oscar</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CTD</t>
-  </si>
-  <si>
-    <t>CTSD</t>
-  </si>
-  <si>
-    <t>CTSS</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>S1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +267,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -306,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,9 +353,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +388,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,14 +564,889 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,12 +1466,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -594,12 +1486,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -614,12 +1506,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -634,12 +1526,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -654,12 +1546,885 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -674,12 +2439,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -694,12 +2459,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -714,12 +2479,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -734,12 +2499,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -754,12 +2519,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -774,12 +2539,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -794,12 +2559,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -814,12 +2579,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -834,12 +2599,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -854,12 +2619,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -874,33 +2639,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -914,12 +2679,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -934,12 +2699,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -954,18 +2719,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -974,12 +2739,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -994,12 +2759,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1014,32 +2779,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1054,12 +2819,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1074,12 +2839,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1094,92 +2859,92 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1194,73 +2959,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
       <c r="C36">
         <v>0</v>
       </c>
@@ -1274,152 +3039,152 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>0</v>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DYNA\Mo_shift\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Jun2017" sheetId="1" r:id="rId1"/>
-    <sheet name="May2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Apr2017" sheetId="3" r:id="rId3"/>
+    <sheet name="Jul2017" sheetId="2" r:id="rId2"/>
+    <sheet name="May2017" sheetId="3" r:id="rId3"/>
+    <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -195,6 +191,12 @@
   </si>
   <si>
     <t>S1</t>
+  </si>
+  <si>
+    <t>remaining_MTshift</t>
+  </si>
+  <si>
+    <t>remaining_CTshift</t>
   </si>
   <si>
     <t>tinb</t>
@@ -203,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,14 +269,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -321,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,10 +347,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +381,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,16 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -613,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -633,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -653,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -673,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -693,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -713,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -733,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -753,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -773,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -793,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -813,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -833,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -853,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -873,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -893,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -913,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -933,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -953,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -973,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -993,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1013,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1033,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1053,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1073,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1133,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1173,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1193,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1233,7 +1223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1253,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1273,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1293,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1313,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1333,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1353,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1373,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1393,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1413,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1439,14 +1429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,8 +1455,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1485,10 +1481,16 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -1505,10 +1507,16 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -1525,10 +1533,16 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -1545,30 +1559,42 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -1585,36 +1611,48 @@
       <c r="F7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1625,48 +1663,66 @@
       <c r="F9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1674,19 +1730,25 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1705,8 +1767,14 @@
       <c r="F13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1714,19 +1782,25 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1734,19 +1808,25 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1754,19 +1834,25 @@
         <v>51</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1785,28 +1871,40 @@
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1817,18 +1915,24 @@
         <v>13</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -1837,16 +1941,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1854,19 +1964,25 @@
         <v>53</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1877,18 +1993,24 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -1897,18 +2019,24 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -1920,15 +2048,21 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -1937,16 +2071,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1960,13 +2100,19 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1977,16 +2123,22 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1994,21 +2146,27 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -2020,15 +2178,21 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -2045,10 +2209,16 @@
       <c r="F30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
@@ -2057,21 +2227,27 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2080,13 +2256,19 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2105,10 +2287,16 @@
       <c r="F33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
@@ -2117,38 +2305,50 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -2157,16 +2357,22 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2177,18 +2383,24 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -2197,38 +2409,50 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
@@ -2245,10 +2469,16 @@
       <c r="F40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -2265,10 +2495,16 @@
       <c r="F41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -2285,10 +2521,16 @@
       <c r="F42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -2304,6 +2546,38 @@
       </c>
       <c r="F43">
         <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2312,14 +2586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2633,900 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2379,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2399,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2419,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2439,7 +3606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2459,7 +3626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2479,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2499,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +3686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2539,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2559,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2579,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2599,7 +3766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2619,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2639,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2659,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2679,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2699,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2719,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2739,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2759,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2779,7 +3946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2799,7 +3966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2819,7 +3986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2839,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2859,7 +4026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2879,9 +4046,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -2899,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2919,7 +4086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2939,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2959,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2979,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2999,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3019,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3039,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3059,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3079,7 +4246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -3099,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3119,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3139,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3159,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -3179,7 +4346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>47</v>
       </c>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Jun2017" sheetId="1" r:id="rId1"/>
-    <sheet name="Jul2017" sheetId="2" r:id="rId2"/>
-    <sheet name="May2017" sheetId="3" r:id="rId3"/>
-    <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
+    <sheet name="Aug2017" sheetId="1" r:id="rId1"/>
+    <sheet name="Jun2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Jul2017" sheetId="3" r:id="rId3"/>
+    <sheet name="May2017" sheetId="4" r:id="rId4"/>
+    <sheet name="Apr2017" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -37,6 +38,12 @@
     <t>load</t>
   </si>
   <si>
+    <t>remaining_MTshift</t>
+  </si>
+  <si>
+    <t>remaining_CTshift</t>
+  </si>
+  <si>
     <t>amy</t>
   </si>
   <si>
@@ -103,12 +110,12 @@
     <t>roy</t>
   </si>
   <si>
+    <t>kennex</t>
+  </si>
+  <si>
     <t>kate</t>
   </si>
   <si>
-    <t>kennex</t>
-  </si>
-  <si>
     <t>anj</t>
   </si>
   <si>
@@ -118,13 +125,19 @@
     <t>cath</t>
   </si>
   <si>
+    <t>zhey</t>
+  </si>
+  <si>
+    <t>tinb</t>
+  </si>
+  <si>
     <t>arnel</t>
   </si>
   <si>
     <t>earl</t>
   </si>
   <si>
-    <t>zhey</t>
+    <t>leo</t>
   </si>
   <si>
     <t>meryll</t>
@@ -133,73 +146,61 @@
     <t>carlo</t>
   </si>
   <si>
-    <t>leo</t>
-  </si>
-  <si>
     <t>kevin</t>
   </si>
   <si>
+    <t>ivy</t>
+  </si>
+  <si>
+    <t>prado</t>
+  </si>
+  <si>
     <t>john</t>
   </si>
   <si>
-    <t>prado</t>
-  </si>
-  <si>
-    <t>ivy</t>
+    <t>reyn</t>
+  </si>
+  <si>
+    <t>rodney</t>
   </si>
   <si>
     <t>jec</t>
   </si>
   <si>
-    <t>reyn</t>
-  </si>
-  <si>
-    <t>rodney</t>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>CTSD</t>
+  </si>
+  <si>
+    <t>CTSS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
   <si>
     <t>junril</t>
-  </si>
-  <si>
-    <t>oscar</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CTD</t>
-  </si>
-  <si>
-    <t>CTSD</t>
-  </si>
-  <si>
-    <t>CTSS</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>remaining_MTshift</t>
-  </si>
-  <si>
-    <t>remaining_CTshift</t>
-  </si>
-  <si>
-    <t>tinb</t>
   </si>
 </sst>
 </file>
@@ -557,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,833 +583,1085 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1421,6 +1674,12 @@
       </c>
       <c r="F43">
         <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1429,6 +1688,879 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -1456,18 +2588,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1490,10 +2622,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1516,10 +2648,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1542,10 +2674,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1568,10 +2700,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1594,10 +2726,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1620,10 +2752,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1646,10 +2778,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1672,10 +2804,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1698,10 +2830,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1724,10 +2856,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1750,10 +2882,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1776,10 +2908,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1802,10 +2934,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1828,10 +2960,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1854,10 +2986,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1880,10 +3012,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1906,10 +3038,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -1932,10 +3064,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1958,10 +3090,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1984,10 +3116,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2010,10 +3142,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2036,10 +3168,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2062,10 +3194,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2088,10 +3220,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2114,10 +3246,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2140,10 +3272,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -2166,10 +3298,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2192,10 +3324,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2218,10 +3350,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2247,7 +3379,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2270,10 +3402,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2296,10 +3428,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2322,10 +3454,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2348,10 +3480,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2374,10 +3506,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2400,10 +3532,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2426,10 +3558,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2452,10 +3584,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2478,10 +3610,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2504,10 +3636,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2530,10 +3662,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2556,10 +3688,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2578,899 +3710,6 @@
       </c>
       <c r="H44">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>21</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32">
-        <v>13</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3508,10 +3747,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3528,50 +3767,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3588,10 +3827,903 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -3608,10 +4740,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3628,10 +4760,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3648,10 +4780,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3668,10 +4800,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -3688,10 +4820,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3708,10 +4840,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3728,10 +4860,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3748,10 +4880,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -3768,10 +4900,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3788,10 +4920,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3808,10 +4940,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3828,10 +4960,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3848,10 +4980,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -3868,10 +5000,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3888,10 +5020,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -3908,10 +5040,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3928,10 +5060,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3948,10 +5080,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3968,10 +5100,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3988,10 +5120,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4008,10 +5140,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4028,10 +5160,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4048,10 +5180,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4068,10 +5200,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4088,10 +5220,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4111,7 +5243,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4128,10 +5260,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4148,10 +5280,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4168,10 +5300,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4188,10 +5320,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4208,10 +5340,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4228,10 +5360,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4248,10 +5380,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4268,10 +5400,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4288,10 +5420,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4308,10 +5440,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4328,10 +5460,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4348,10 +5480,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>0</v>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Aug2017" sheetId="1" r:id="rId1"/>
-    <sheet name="Jun2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Jul2017" sheetId="3" r:id="rId3"/>
-    <sheet name="May2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Apr2017" sheetId="5" r:id="rId5"/>
+    <sheet name="Jul2017" sheetId="1" r:id="rId1"/>
+    <sheet name="May2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Jun2017" sheetId="3" r:id="rId3"/>
+    <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
+    <sheet name="Aug2017" sheetId="5" r:id="rId5"/>
+    <sheet name="Sep2017" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -47,16 +48,13 @@
     <t>amy</t>
   </si>
   <si>
-    <t>tinc</t>
-  </si>
-  <si>
     <t>ardeth</t>
   </si>
   <si>
     <t>daisy</t>
   </si>
   <si>
-    <t>edch</t>
+    <t>tinc</t>
   </si>
   <si>
     <t>mikee</t>
@@ -72,6 +70,9 @@
   </si>
   <si>
     <t>lem</t>
+  </si>
+  <si>
+    <t>edch</t>
   </si>
   <si>
     <t>pau</t>
@@ -92,13 +93,13 @@
     <t>junsat</t>
   </si>
   <si>
-    <t>sky</t>
+    <t>nathan</t>
   </si>
   <si>
     <t>morgan</t>
   </si>
   <si>
-    <t>nathan</t>
+    <t>roy</t>
   </si>
   <si>
     <t>mart</t>
@@ -107,7 +108,7 @@
     <t>marj</t>
   </si>
   <si>
-    <t>roy</t>
+    <t>sky</t>
   </si>
   <si>
     <t>kennex</t>
@@ -125,9 +126,6 @@
     <t>cath</t>
   </si>
   <si>
-    <t>zhey</t>
-  </si>
-  <si>
     <t>tinb</t>
   </si>
   <si>
@@ -137,19 +135,19 @@
     <t>earl</t>
   </si>
   <si>
-    <t>leo</t>
+    <t>zhey</t>
+  </si>
+  <si>
+    <t>carlo</t>
   </si>
   <si>
     <t>meryll</t>
   </si>
   <si>
-    <t>carlo</t>
+    <t>leo</t>
   </si>
   <si>
     <t>kevin</t>
-  </si>
-  <si>
-    <t>ivy</t>
   </si>
   <si>
     <t>prado</t>
@@ -158,13 +156,19 @@
     <t>john</t>
   </si>
   <si>
+    <t>ivy</t>
+  </si>
+  <si>
+    <t>jec</t>
+  </si>
+  <si>
     <t>reyn</t>
   </si>
   <si>
     <t>rodney</t>
   </si>
   <si>
-    <t>jec</t>
+    <t>junril</t>
   </si>
   <si>
     <t>oscar</t>
@@ -200,7 +204,22 @@
     <t>S1</t>
   </si>
   <si>
-    <t>junril</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>SWAT</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -558,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -604,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -621,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -630,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -647,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -656,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -673,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -682,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -699,10 +718,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -725,16 +744,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -751,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -777,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -803,16 +822,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -829,19 +848,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -855,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -881,7 +900,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -907,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -933,7 +952,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -959,19 +978,19 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -985,7 +1004,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1011,13 +1030,13 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1037,19 +1056,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1063,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1089,19 +1108,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1115,19 +1134,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1141,13 +1160,13 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1167,16 +1186,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1193,19 +1212,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1219,19 +1238,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1245,16 +1264,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1271,13 +1290,13 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1297,16 +1316,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1323,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1349,16 +1368,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -1375,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1401,16 +1420,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -1427,16 +1446,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -1453,16 +1472,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1479,7 +1498,7 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1505,7 +1524,7 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1531,16 +1550,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -1557,7 +1576,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1583,7 +1602,7 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1609,7 +1628,7 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1635,7 +1654,7 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1661,7 +1680,7 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1679,6 +1698,32 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0</v>
       </c>
     </row>
@@ -1688,6 +1733,899 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -1720,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1740,7 +2678,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1757,10 +2695,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1777,10 +2715,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1797,10 +2735,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1820,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -1840,7 +2778,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1857,10 +2795,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1880,7 +2818,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1900,7 +2838,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -1917,10 +2855,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1937,10 +2875,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1957,10 +2895,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -1977,10 +2915,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -2000,7 +2938,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -2017,10 +2955,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2037,10 +2975,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2057,10 +2995,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2077,10 +3015,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2100,7 +3038,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2120,7 +3058,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2140,7 +3078,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2160,7 +3098,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2177,10 +3115,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -2197,10 +3135,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2220,7 +3158,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2240,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2260,7 +3198,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2277,10 +3215,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -2297,10 +3235,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>14</v>
@@ -2320,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>14</v>
@@ -2337,10 +3275,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2357,10 +3295,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2380,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>14</v>
@@ -2400,7 +3338,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -2417,10 +3355,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2437,10 +3375,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2457,10 +3395,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2477,10 +3415,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2497,10 +3435,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2517,10 +3455,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2537,10 +3475,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2553,1163 +3491,6 @@
       </c>
       <c r="F43">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3767,50 +3548,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3827,79 +3608,79 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3907,19 +3688,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -3927,10 +3708,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3939,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3959,27 +3740,27 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3987,19 +3768,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -4007,19 +3788,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -4027,16 +3808,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4047,10 +3828,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4067,39 +3848,39 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -4107,36 +3888,36 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4147,19 +3928,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -4167,10 +3948,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4179,18 +3960,18 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4207,87 +3988,87 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -4299,87 +4080,87 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -4387,79 +4168,79 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -4467,7 +4248,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -4476,18 +4257,18 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -4496,90 +4277,90 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -4587,22 +4368,22 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4612,13 +4393,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4637,13 +4418,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4652,58 +4439,76 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4712,258 +4517,336 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4977,19 +4860,25 @@
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4997,13 +4886,19 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5012,24 +4907,30 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5037,13 +4938,19 @@
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5052,450 +4959,1851 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>25</v>
+      </c>
       <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="C44" t="s">
+        <v>63</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Jul2017" sheetId="1" r:id="rId1"/>
-    <sheet name="May2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Jun2017" sheetId="3" r:id="rId3"/>
-    <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Aug2017" sheetId="5" r:id="rId5"/>
-    <sheet name="Sep2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Oct2017" sheetId="2" r:id="rId2"/>
+    <sheet name="May2017" sheetId="3" r:id="rId3"/>
+    <sheet name="Jun2017" sheetId="4" r:id="rId4"/>
+    <sheet name="Apr2017" sheetId="5" r:id="rId5"/>
+    <sheet name="Aug2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Sep2017" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -204,7 +205,10 @@
     <t>S1</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
   <si>
     <t>CT</t>
@@ -213,13 +217,10 @@
     <t>SWAT</t>
   </si>
   <si>
-    <t>index</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>Admin</t>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -1734,6 +1735,1163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2625,7 +3783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -3498,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -4391,7 +5549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -4430,7 +5588,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4456,7 +5614,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4482,7 +5640,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4508,7 +5666,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4534,7 +5692,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4560,7 +5718,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -4586,7 +5744,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -4612,7 +5770,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -4638,7 +5796,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4664,7 +5822,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4690,7 +5848,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -4716,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -4742,7 +5900,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4768,7 +5926,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4794,7 +5952,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5418,7 +6576,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5444,7 +6602,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5470,7 +6628,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5496,7 +6654,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5522,7 +6680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -5532,7 +6690,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5567,7 +6725,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5596,7 +6754,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -5625,7 +6783,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5654,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5683,7 +6841,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -5712,7 +6870,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5741,7 +6899,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -5770,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -5799,7 +6957,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -5828,7 +6986,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -5857,7 +7015,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -5886,7 +7044,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -5915,7 +7073,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -5944,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -5973,7 +7131,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -6666,7 +7824,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
@@ -6698,7 +7856,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6727,7 +7885,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6756,7 +7914,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6785,7 +7943,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>0</v>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -10,17 +10,18 @@
     <sheet name="Jul2017" sheetId="1" r:id="rId1"/>
     <sheet name="Oct2017" sheetId="2" r:id="rId2"/>
     <sheet name="May2017" sheetId="3" r:id="rId3"/>
-    <sheet name="Jun2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Apr2017" sheetId="5" r:id="rId5"/>
-    <sheet name="Aug2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Sep2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Nov2017" sheetId="4" r:id="rId4"/>
+    <sheet name="Jun2017" sheetId="5" r:id="rId5"/>
+    <sheet name="Apr2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Aug2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Sep2017" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -3785,6 +3786,1163 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4656,7 +5814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -5549,7 +6707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -6680,7 +7838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Oct2017" sheetId="2" r:id="rId2"/>
     <sheet name="May2017" sheetId="3" r:id="rId3"/>
     <sheet name="Nov2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Jun2017" sheetId="5" r:id="rId5"/>
-    <sheet name="Apr2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Aug2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Sep2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Dec2017" sheetId="5" r:id="rId5"/>
+    <sheet name="Jun2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Apr2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Aug2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Sep2017" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -216,6 +217,12 @@
   </si>
   <si>
     <t>SWAT</t>
+  </si>
+  <si>
+    <t>camille</t>
+  </si>
+  <si>
+    <t>marvin</t>
   </si>
   <si>
     <t>admin</t>
@@ -4943,6 +4950,1215 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5814,7 +7030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -6707,7 +7923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -6746,7 +7962,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6772,7 +7988,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6798,7 +8014,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6824,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7838,7 +9054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -7848,7 +9064,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -10,23 +10,24 @@
     <sheet name="Apr2018" sheetId="1" r:id="rId1"/>
     <sheet name="Jul2017" sheetId="2" r:id="rId2"/>
     <sheet name="Feb2018" sheetId="3" r:id="rId3"/>
-    <sheet name="Oct2017" sheetId="4" r:id="rId4"/>
-    <sheet name="May2017" sheetId="5" r:id="rId5"/>
-    <sheet name="Nov2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Dec2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Jun2017" sheetId="8" r:id="rId8"/>
-    <sheet name="Apr2017" sheetId="9" r:id="rId9"/>
-    <sheet name="Mar2018" sheetId="10" r:id="rId10"/>
-    <sheet name="Jan2018" sheetId="11" r:id="rId11"/>
-    <sheet name="Aug2017" sheetId="12" r:id="rId12"/>
-    <sheet name="Sep2017" sheetId="13" r:id="rId13"/>
+    <sheet name="May2018" sheetId="4" r:id="rId4"/>
+    <sheet name="Oct2017" sheetId="5" r:id="rId5"/>
+    <sheet name="May2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Nov2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Dec2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Jun2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Apr2017" sheetId="10" r:id="rId10"/>
+    <sheet name="Mar2018" sheetId="11" r:id="rId11"/>
+    <sheet name="Jan2018" sheetId="12" r:id="rId12"/>
+    <sheet name="Aug2017" sheetId="13" r:id="rId13"/>
+    <sheet name="Sep2017" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -241,7 +242,25 @@
     <t>CTS</t>
   </si>
   <si>
+    <t>carla</t>
+  </si>
+  <si>
+    <t>ken</t>
+  </si>
+  <si>
+    <t>troy</t>
+  </si>
+  <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>swat</t>
   </si>
   <si>
     <t>index</t>
@@ -1733,6 +1752,899 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2836,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -3889,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -3928,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3954,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3980,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4006,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5020,7 +5932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -5030,7 +5942,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8521,6 +9433,663 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9676,7 +11245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -10569,7 +12138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -11726,7 +13295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -12935,7 +14504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -13806,897 +15375,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -13,21 +13,22 @@
     <sheet name="May2018" sheetId="4" r:id="rId4"/>
     <sheet name="Oct2017" sheetId="5" r:id="rId5"/>
     <sheet name="May2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Nov2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Dec2017" sheetId="8" r:id="rId8"/>
-    <sheet name="Jun2017" sheetId="9" r:id="rId9"/>
-    <sheet name="Apr2017" sheetId="10" r:id="rId10"/>
-    <sheet name="Mar2018" sheetId="11" r:id="rId11"/>
-    <sheet name="Jan2018" sheetId="12" r:id="rId12"/>
-    <sheet name="Aug2017" sheetId="13" r:id="rId13"/>
-    <sheet name="Sep2017" sheetId="14" r:id="rId14"/>
+    <sheet name="Jun2018" sheetId="7" r:id="rId7"/>
+    <sheet name="Nov2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Dec2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Jun2017" sheetId="10" r:id="rId10"/>
+    <sheet name="Apr2017" sheetId="11" r:id="rId11"/>
+    <sheet name="Mar2018" sheetId="12" r:id="rId12"/>
+    <sheet name="Jan2018" sheetId="13" r:id="rId13"/>
+    <sheet name="Aug2017" sheetId="14" r:id="rId14"/>
+    <sheet name="Sep2017" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -1752,6 +1753,879 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2643,7 +3517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -3748,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -4801,7 +5675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -5932,7 +6806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -12140,6 +13014,663 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13295,7 +14826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -14502,877 +16033,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35">
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -12,23 +12,24 @@
     <sheet name="Feb2018" sheetId="3" r:id="rId3"/>
     <sheet name="May2018" sheetId="4" r:id="rId4"/>
     <sheet name="Oct2017" sheetId="5" r:id="rId5"/>
-    <sheet name="May2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Jun2018" sheetId="7" r:id="rId7"/>
-    <sheet name="Nov2017" sheetId="8" r:id="rId8"/>
-    <sheet name="Dec2017" sheetId="9" r:id="rId9"/>
-    <sheet name="Jun2017" sheetId="10" r:id="rId10"/>
-    <sheet name="Apr2017" sheetId="11" r:id="rId11"/>
-    <sheet name="Mar2018" sheetId="12" r:id="rId12"/>
-    <sheet name="Jan2018" sheetId="13" r:id="rId13"/>
-    <sheet name="Aug2017" sheetId="14" r:id="rId14"/>
-    <sheet name="Sep2017" sheetId="15" r:id="rId15"/>
+    <sheet name="Sep2018" sheetId="6" r:id="rId6"/>
+    <sheet name="May2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Jun2018" sheetId="8" r:id="rId8"/>
+    <sheet name="Nov2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Dec2017" sheetId="10" r:id="rId10"/>
+    <sheet name="Jun2017" sheetId="11" r:id="rId11"/>
+    <sheet name="Apr2017" sheetId="12" r:id="rId12"/>
+    <sheet name="Mar2018" sheetId="13" r:id="rId13"/>
+    <sheet name="Jan2018" sheetId="14" r:id="rId14"/>
+    <sheet name="Aug2017" sheetId="15" r:id="rId15"/>
+    <sheet name="Sep2017" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -262,6 +263,12 @@
   </si>
   <si>
     <t>swat</t>
+  </si>
+  <si>
+    <t>sonny</t>
+  </si>
+  <si>
+    <t>nichole</t>
   </si>
   <si>
     <t>index</t>
@@ -1753,6 +1760,1215 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2624,7 +3840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -3517,7 +4733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -4622,7 +5838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -5675,7 +6891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -6806,7 +8022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -6816,7 +8032,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -12121,6 +13337,649 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13012,7 +14871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -13669,7 +15528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -14824,1213 +16683,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -21,16 +21,19 @@
     <sheet name="Jun2017" sheetId="12" r:id="rId12"/>
     <sheet name="Apr2017" sheetId="13" r:id="rId13"/>
     <sheet name="Mar2018" sheetId="14" r:id="rId14"/>
-    <sheet name="Jan2018" sheetId="15" r:id="rId15"/>
-    <sheet name="Aug2017" sheetId="16" r:id="rId16"/>
-    <sheet name="Sep2017" sheetId="17" r:id="rId17"/>
+    <sheet name="Jan2019" sheetId="15" r:id="rId15"/>
+    <sheet name="Jan2018" sheetId="16" r:id="rId16"/>
+    <sheet name="Aug2017" sheetId="17" r:id="rId17"/>
+    <sheet name="Sep2017" sheetId="18" r:id="rId18"/>
+    <sheet name="Dec2018" sheetId="19" r:id="rId19"/>
+    <sheet name="Nov2018" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -6513,6 +6516,607 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7564,7 +8168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -8695,7 +9299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -9977,6 +10581,635 @@
       </c>
       <c r="I44">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11115,6 +12348,649 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jan2020" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb2020" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Jan2020" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feb2020" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Mar2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Apr2020" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1948,7 +1949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2137,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2170,7 +2171,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2287,12 +2288,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Harle</t>
+          <t>Harry</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2305,7 +2306,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Harry</t>
+          <t>Issa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2314,7 +2315,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -2323,12 +2324,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Issa</t>
+          <t>JK</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2341,7 +2342,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JK</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2359,7 +2360,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Janine</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2377,25 +2378,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Janine</t>
+          <t>Jec</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jec</t>
+          <t>Jes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2413,16 +2414,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jes</t>
+          <t>Jhoanne</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -2431,16 +2432,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jhoanne</t>
+          <t>Johann</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2449,7 +2450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Johann</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2458,7 +2459,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -2467,16 +2468,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Julius</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -2485,16 +2486,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Julius</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -2503,12 +2504,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Ken</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2521,25 +2522,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ken</t>
+          <t>Kennex</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kennex</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2548,7 +2549,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -2557,12 +2558,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Lem</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2575,12 +2576,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lem</t>
+          <t>Louie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2593,7 +2594,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Louie</t>
+          <t>Luz</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2611,7 +2612,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luz</t>
+          <t>Meryll</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2629,43 +2630,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Meryll</t>
+          <t>Momay</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Momay</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2683,7 +2684,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Nichole</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2701,25 +2702,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nichole</t>
+          <t>Nora</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nora</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2728,16 +2729,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2749,13 +2750,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Reyn</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2767,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Reyn</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2785,18 +2786,18 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2809,25 +2810,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>Sky</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2836,7 +2837,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -2845,16 +2846,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sky</t>
+          <t>Tine</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -2863,16 +2864,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Tintin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2881,16 +2882,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tine</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -2899,16 +2900,993 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Carlo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Drew</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Harle</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Luz</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Momay</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tina</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>Tintin</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -2917,36 +3895,18 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" t="n">
         <v>1</v>
       </c>
     </row>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan2020" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feb2020" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Mar2020" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Apr2020" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jan2020" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb2020" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr2020" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May2020" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +58,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -980,7 +981,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1939,7 +1940,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2916,7 +2917,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3187,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3526,7 +3527,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -3760,7 +3761,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -3911,6 +3912,1001 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Carlo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Drew</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Harle</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Luz</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Momay</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tina</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2020" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr2020" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May2020" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jun2020" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4381,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4615,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -4904,6 +4905,1001 @@
       </c>
       <c r="D54" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Carlo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Drew</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Harle</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Luz</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Momay</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tina</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -4,13 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jan2021" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb2021" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2021" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr2021" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May2021" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +58,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1355,7 +1356,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2340,7 +2341,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3344,7 +3345,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4440,6 +4441,1102 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mancomm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Carlo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Momay</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436678F-31BF-4720-B0AA-038C6100DF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7F8BC-82FE-452D-9503-7C16F2CC5995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="7830" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2021" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,16 @@
     <sheet name="Jun2021" sheetId="6" r:id="rId6"/>
     <sheet name="Jul2021" sheetId="7" r:id="rId7"/>
     <sheet name="Aug2021" sheetId="8" r:id="rId8"/>
+    <sheet name="Sep2021" sheetId="9" r:id="rId9"/>
+    <sheet name="Oct2021" sheetId="10" r:id="rId10"/>
+    <sheet name="Nov2021" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -226,6 +229,15 @@
   <si>
     <t>Milky</t>
   </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Rasty</t>
+  </si>
+  <si>
+    <t>Jaja</t>
+  </si>
 </sst>
 </file>
 
@@ -243,6 +255,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -589,8 +602,1596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +2220,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -633,6 +2237,9 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -647,11 +2254,14 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,8 +2271,11 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -675,6 +2288,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -689,8 +2305,11 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -698,44 +2317,50 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -743,27 +2368,33 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -771,10 +2402,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -785,27 +2419,33 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -813,10 +2453,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -827,13 +2470,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -841,24 +2487,30 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -869,13 +2521,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -883,24 +2538,30 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -911,13 +2572,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -925,24 +2589,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -953,10 +2623,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -967,10 +2640,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -986,8 +2662,11 @@
       <c r="B28" t="s">
         <v>8</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1000,6 +2679,9 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -1018,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1026,13 +2708,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1040,41 +2725,50 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1082,10 +2776,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1096,13 +2793,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1110,27 +2810,33 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1138,24 +2844,30 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1166,13 +2878,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1180,27 +2895,30 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1211,10 +2929,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1225,16 +2946,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1242,13 +2963,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1256,27 +2980,33 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1284,43 +3014,18 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
         <v>2</v>
       </c>
     </row>
@@ -6187,9 +7892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7029,4 +8732,867 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7F8BC-82FE-452D-9503-7C16F2CC5995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE790B2-0216-4066-9F9F-D903D6DE1C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2021" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,27 @@
     <sheet name="Sep2021" sheetId="9" r:id="rId9"/>
     <sheet name="Oct2021" sheetId="10" r:id="rId10"/>
     <sheet name="Nov2021" sheetId="11" r:id="rId11"/>
+    <sheet name="Dec2021" sheetId="12" r:id="rId12"/>
+    <sheet name="Jan2022" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Jan2022'!$A$1:$F$45</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -237,6 +251,9 @@
   </si>
   <si>
     <t>Jaja</t>
+  </si>
+  <si>
+    <t>Don</t>
   </si>
 </sst>
 </file>
@@ -2190,9 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3030,6 +3045,1809 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2+E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F45" si="0">D3+E3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F45" xr:uid="{00000000-0001-0000-0C00-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/ShiftCount.xlsx
+++ b/ShiftCount.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec2022" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jan2023" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb2023" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2459,4 +2461,2007 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AM_shifts</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Balbas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Heinz</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nichi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AM_shifts</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Balbas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nichi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>